--- a/excel_breakdowns/Math Book Breakdowns.xlsx
+++ b/excel_breakdowns/Math Book Breakdowns.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Documents\Math\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\math\excel_breakdowns\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23491" windowHeight="8966" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23490" windowHeight="8970" tabRatio="750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="1" r:id="rId1"/>
@@ -5202,12 +5202,12 @@
       <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.5546875" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5241,7 +5241,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5256,13 +5256,13 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2">
         <v>2</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>1768.9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>3</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>2352.6370000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>4</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>3129.0072100000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>5</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>4161.5795893000004</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>6</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>5534.9008537690006</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>7</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>7361.4181355127712</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>8</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>9790.6861202319851</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>9</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>13021.612539908539</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>10</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>17318.744678078358</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>11</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>23033.930421844216</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>12</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>30635.127461052805</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>1348</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1000</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>2</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>1768.9</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>3</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>2352.6370000000002</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>4</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>3129.0072100000007</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>5</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>4161.5795893000013</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>6</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>5534.9008537690015</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>7</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>7361.4181355127712</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>8</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>9790.6861202319869</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>9</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>13021.612539908543</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>10</v>
       </c>
@@ -5503,20 +5503,20 @@
       <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="64.21875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="75.150000000000006" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6041,21 +6041,21 @@
       <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="150.30000000000001" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="195.35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="270.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45.1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="255.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -7380,21 +7380,21 @@
       <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="110" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="165.3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="240.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="120.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="105.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="150.30000000000001" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="120.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="165.3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="300.55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="285.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="90.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="135.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="105.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="240.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="270.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45.1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="90.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="105.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="60.1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30.05" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="75.150000000000006" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60.1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="240.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="150.30000000000001" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="105.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="240.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="210.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7957,21 +7957,21 @@
       <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>27</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F4" s="5" t="s">
         <v>1375</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="120.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="F5" s="5" t="s">
         <v>1378</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="180.35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="F6" s="5" t="s">
         <v>1393</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="F7" s="5" t="s">
         <v>1380</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="135.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="F8" s="5" t="s">
         <v>1382</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="105.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="F9" s="5" t="s">
         <v>1383</v>
       </c>
@@ -8100,9 +8100,9 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8142,29 +8142,29 @@
   <dimension ref="A1:M376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E362" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" customWidth="1"/>
-    <col min="13" max="13" width="166.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="166.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E3" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="17" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="18" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="19" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="20" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="21" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="22" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="23" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="24" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E24" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="25" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="26" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="27" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="28" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="29" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E29" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="30" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="31" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="32" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="33" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="34" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="35" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="36" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="37" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="38" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E38" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="39" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E39" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="40" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E40" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="41" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E41" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="42" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="43" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="44" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E44" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="45" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E45" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="46" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E46" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="47" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E47" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="48" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E48" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="49" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E49" s="1" t="s">
         <v>942</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="50" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E50" s="1" t="s">
         <v>942</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="51" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E51" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="52" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E52" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="53" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E53" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="54" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E54" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="55" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E55" s="1" t="s">
         <v>942</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="56" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E56" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="57" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E57" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="58" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E58" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="59" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E59" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="60" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E60" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="61" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E61" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="62" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E62" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E63" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="64" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E64" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="65" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E65" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="66" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E66" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="67" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E67" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="68" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E68" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="69" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E69" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="70" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E70" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="71" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E71" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="72" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E72" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="73" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E73" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="74" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E74" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="75" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E75" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="76" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E76" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="77" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E77" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="78" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E78" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="79" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E79" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="80" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E80" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="81" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E81" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="82" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E82" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="83" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E83" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="84" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E84" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="85" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E85" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="86" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E86" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="87" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E87" s="1" t="s">
         <v>1261</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="88" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E88" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="89" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E89" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="90" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E90" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="91" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E91" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="92" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E92" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="93" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E93" s="1" t="s">
         <v>942</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="94" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E94" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="95" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E95" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="96" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E96" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="97" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E97" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="98" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E98" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="99" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E99" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="100" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E100" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="101" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E101" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="102" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E102" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="103" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E103" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="104" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E104" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="105" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E105" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="106" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E106" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="107" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E107" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="108" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E108" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="109" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E109" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="110" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E110" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="111" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E111" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="112" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E112" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="113" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E113" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="114" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E114" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="115" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E115" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="116" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E116" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="117" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E117" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="118" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E118" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="119" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E119" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="120" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E120" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="121" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E121" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="122" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E122" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="123" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E123" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="124" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E124" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="125" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E125" s="1" t="s">
         <v>942</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="126" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E126" s="1" t="s">
         <v>942</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="127" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E127" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="128" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E128" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="129" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E129" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="130" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E130" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="131" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E131" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="132" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E132" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="133" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E133" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="134" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E134" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="135" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E135" s="1" t="s">
         <v>1261</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="136" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E136" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="137" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E137" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="138" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E138" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="139" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E139" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="140" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E140" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="141" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E141" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="142" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E142" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="143" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E143" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="144" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E144" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="145" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E145" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="146" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E146" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="147" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E147" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="148" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E148" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="149" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E149" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="150" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E150" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="151" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E151" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="152" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E152" s="1" t="s">
         <v>942</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="153" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E153" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="154" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E154" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="155" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E155" s="1" t="s">
         <v>942</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="156" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E156" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="157" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E157" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="158" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E158" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="159" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E159" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="160" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E160" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="161" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E161" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="162" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E162" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="163" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E163" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="164" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E164" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="165" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E165" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="166" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E166" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="167" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E167" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="168" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E168" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="169" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E169" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="170" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E170" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="171" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E171" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="172" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E172" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="173" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E173" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="174" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E174" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="175" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E175" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="176" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E176" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="177" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E177" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="178" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E178" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="179" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E179" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="180" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E180" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="181" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E181" s="1" t="s">
         <v>1261</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="182" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E182" s="1" t="s">
         <v>942</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="183" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E183" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="184" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E184" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="185" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E185" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="186" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E186" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="187" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E187" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="188" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E188" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="189" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E189" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="190" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E190" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="191" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E191" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="192" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E192" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="193" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E193" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="194" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E194" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="195" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E195" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="196" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E196" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="197" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E197" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="198" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E198" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="199" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E199" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="200" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E200" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="201" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E201" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="202" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E202" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="203" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E203" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="204" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E204" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="205" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E205" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="206" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E206" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="207" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E207" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="208" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E208" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="209" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E209" s="1" t="s">
         <v>942</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="210" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E210" s="1" t="s">
         <v>942</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="211" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E211" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="212" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E212" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="213" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E213" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="214" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E214" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="215" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E215" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="216" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E216" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="217" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E217" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="218" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E218" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="219" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E219" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="220" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E220" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="221" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E221" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="222" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E222" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="223" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E223" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="224" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E224" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="225" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E225" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="226" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E226" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="227" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E227" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="228" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E228" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="229" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E229" s="1" t="s">
         <v>942</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="230" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E230" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="231" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E231" s="1" t="s">
         <v>1261</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="232" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E232" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="233" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E233" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="234" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E234" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="235" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E235" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="236" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E236" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="237" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E237" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="238" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E238" s="1" t="s">
         <v>942</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="239" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E239" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="240" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E240" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="241" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E241" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="242" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E242" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="243" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E243" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="244" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E244" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="245" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E245" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="246" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E246" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="247" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E247" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="248" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E248" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="249" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E249" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="250" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E250" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="251" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E251" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="252" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E252" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="253" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E253" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="254" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E254" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="255" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E255" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="256" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E256" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="257" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E257" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13529,7 +13529,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="258" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E258" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="259" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E259" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="260" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E260" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="261" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E261" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13612,7 +13612,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="262" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E262" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="263" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E263" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="264" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E264" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="265" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E265" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="266" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E266" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13703,7 +13703,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="267" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E267" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="268" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E268" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="269" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E269" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="270" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E270" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="271" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E271" s="1" t="s">
         <v>942</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="272" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E272" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="273" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E273" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="274" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E274" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="275" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E275" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="276" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E276" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="277" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E277" s="1" t="s">
         <v>942</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="278" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E278" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E279" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="280" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E280" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13977,7 +13977,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="281" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E281" s="1" t="s">
         <v>942</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="282" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E282" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="283" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E283" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="284" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E284" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="285" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E285" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="286" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E286" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="287" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E287" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14114,7 +14114,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="288" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E288" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14131,7 +14131,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="289" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E289" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="290" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E290" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14174,7 +14174,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="291" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E291" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14194,7 +14194,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="292" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E292" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="293" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E293" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="294" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E294" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="295" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E295" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14277,7 +14277,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="296" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E296" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="297" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E297" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="298" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E298" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="299" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E299" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="300" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E300" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="301" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E301" s="1" t="s">
         <v>942</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="302" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E302" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="303" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E303" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="304" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E304" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="305" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E305" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="306" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E306" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="307" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E307" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="308" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E308" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="309" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E309" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="310" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E310" s="1" t="s">
         <v>942</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="311" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E311" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="312" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E312" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="313" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E313" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="314" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E314" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="315" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E315" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="316" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E316" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="317" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E317" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="318" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E318" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="319" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E319" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14781,7 +14781,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="320" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E320" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14798,7 +14798,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="321" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E321" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="322" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E322" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14841,7 +14841,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="323" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E323" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="324" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E324" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14878,7 +14878,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="325" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E325" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="326" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E326" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="327" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E327" s="1" t="s">
         <v>942</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="328" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E328" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14961,7 +14961,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="329" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E329" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="330" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E330" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="331" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E331" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="332" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E332" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="333" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E333" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="334" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E334" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="335" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E335" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15107,7 +15107,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="336" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E336" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="337" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E337" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="338" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E338" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="339" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E339" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="340" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E340" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="341" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E341" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="342" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E342" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15244,7 +15244,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="343" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E343" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="344" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E344" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="345" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E345" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="346" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E346" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="347" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E347" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="348" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E348" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15367,7 +15367,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="349" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E349" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="350" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E350" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15410,7 +15410,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="351" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E351" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15430,7 +15430,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="352" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E352" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15453,7 +15453,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="353" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E353" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="354" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E354" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="355" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E355" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="356" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E356" s="1" t="s">
         <v>942</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="357" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E357" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15562,7 +15562,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="358" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E358" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="359" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E359" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15602,7 +15602,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="360" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E360" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="361" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E361" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="362" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E362" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="363" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E363" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15682,7 +15682,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="364" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E364" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15702,7 +15702,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="365" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E365" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="366" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E366" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="367" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E367" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15759,7 +15759,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="368" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E368" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="369" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E369" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="370" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E370" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15816,7 +15816,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="371" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E371" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="372" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E372" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="373" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E373" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="374" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E374" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="375" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E375" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15916,7 +15916,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="376" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="5:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E376" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15950,26 +15950,26 @@
   <dimension ref="A1:AA224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="104.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="104.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="98" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="85" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.77734375" customWidth="1"/>
-    <col min="27" max="27" width="166.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" customWidth="1"/>
+    <col min="27" max="27" width="166.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>286</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>282</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>782</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>222</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>327</v>
       </c>
@@ -16143,7 +16143,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>254</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>306</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>270</v>
       </c>
@@ -16212,7 +16212,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>330</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>273</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>321</v>
       </c>
@@ -16296,7 +16296,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>293</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>319</v>
       </c>
@@ -16351,7 +16351,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>200</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>328</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="17" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>208</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="18" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>145</v>
       </c>
@@ -16479,7 +16479,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>219</v>
       </c>
@@ -16517,7 +16517,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>341</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="21" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>204</v>
       </c>
@@ -16584,7 +16584,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="22" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>246</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="23" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>228</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="24" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>302</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="25" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>329</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="26" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>296</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="27" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>155</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="28" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>185</v>
       </c>
@@ -16781,7 +16781,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="29" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>549</v>
       </c>
@@ -16807,7 +16807,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="30" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>336</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="31" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>284</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="32" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>182</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="33" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>176</v>
       </c>
@@ -16935,7 +16935,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="34" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>190</v>
       </c>
@@ -16970,7 +16970,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="35" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>252</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="36" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>147</v>
       </c>
@@ -17025,7 +17025,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="37" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>275</v>
       </c>
@@ -17048,7 +17048,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="38" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>213</v>
       </c>
@@ -17068,7 +17068,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="39" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>144</v>
       </c>
@@ -17115,7 +17115,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="40" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>186</v>
       </c>
@@ -17138,7 +17138,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="41" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>154</v>
       </c>
@@ -17158,7 +17158,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="42" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>239</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="43" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>281</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="44" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>138</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="45" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>795</v>
       </c>
@@ -17271,7 +17271,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="46" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>314</v>
       </c>
@@ -17294,7 +17294,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="47" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>265</v>
       </c>
@@ -17317,7 +17317,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="48" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>161</v>
       </c>
@@ -17355,7 +17355,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="49" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>335</v>
       </c>
@@ -17396,7 +17396,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="50" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>240</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="51" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>307</v>
       </c>
@@ -17454,7 +17454,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="52" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>170</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="53" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>263</v>
       </c>
@@ -17524,7 +17524,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="54" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>290</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="55" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>287</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="56" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>210</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="57" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>339</v>
       </c>
@@ -17643,7 +17643,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="58" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>135</v>
       </c>
@@ -17672,7 +17672,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="59" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>280</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="60" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>312</v>
       </c>
@@ -17745,7 +17745,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="61" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>224</v>
       </c>
@@ -17780,7 +17780,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="62" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>140</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="63" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>218</v>
       </c>
@@ -17829,7 +17829,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="64" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>151</v>
       </c>
@@ -17852,7 +17852,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="65" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>183</v>
       </c>
@@ -17872,7 +17872,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="66" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>266</v>
       </c>
@@ -17904,7 +17904,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="67" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>211</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="68" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>294</v>
       </c>
@@ -17959,7 +17959,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="69" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>258</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="70" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>236</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="71" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>153</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="72" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>245</v>
       </c>
@@ -18057,7 +18057,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="73" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>214</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="74" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>165</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="75" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>233</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="76" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>301</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="77" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>156</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="78" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>192</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="79" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>780</v>
       </c>
@@ -18314,7 +18314,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="80" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>255</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="81" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>241</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="82" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>230</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="83" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>298</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="84" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>249</v>
       </c>
@@ -18471,7 +18471,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="85" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>269</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="86" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>180</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="87" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>551</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="88" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>141</v>
       </c>
@@ -18569,7 +18569,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="89" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>174</v>
       </c>
@@ -18589,7 +18589,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="90" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>340</v>
       </c>
@@ -18618,7 +18618,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="91" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>191</v>
       </c>
@@ -18662,7 +18662,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="92" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>152</v>
       </c>
@@ -18697,7 +18697,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="93" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>150</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="94" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>311</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="95" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
         <v>261</v>
       </c>
@@ -18784,7 +18784,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="96" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
         <v>257</v>
       </c>
@@ -18807,7 +18807,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="97" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
         <v>547</v>
       </c>
@@ -18830,7 +18830,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="98" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
         <v>207</v>
       </c>
@@ -18868,7 +18868,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="99" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
         <v>289</v>
       </c>
@@ -18903,7 +18903,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="100" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
         <v>215</v>
       </c>
@@ -18950,7 +18950,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="101" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
         <v>322</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="102" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
         <v>179</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="103" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
         <v>318</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="104" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
         <v>225</v>
       </c>
@@ -19063,7 +19063,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="105" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
         <v>247</v>
       </c>
@@ -19086,7 +19086,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="106" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
         <v>243</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="107" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
         <v>232</v>
       </c>
@@ -19129,7 +19129,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="108" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
         <v>184</v>
       </c>
@@ -19161,7 +19161,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="109" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
         <v>177</v>
       </c>
@@ -19181,7 +19181,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="110" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
         <v>164</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="111" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
         <v>262</v>
       </c>
@@ -19260,7 +19260,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="112" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
         <v>305</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="113" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
         <v>550</v>
       </c>
@@ -19306,7 +19306,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="114" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
         <v>166</v>
       </c>
@@ -19341,7 +19341,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="115" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
         <v>326</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="116" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
         <v>142</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="117" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
         <v>285</v>
       </c>
@@ -19416,7 +19416,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="118" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
         <v>267</v>
       </c>
@@ -19454,7 +19454,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="119" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
         <v>310</v>
       </c>
@@ -19486,7 +19486,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="120" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
         <v>548</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="121" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
         <v>137</v>
       </c>
@@ -19526,7 +19526,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="122" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
         <v>133</v>
       </c>
@@ -19555,7 +19555,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="123" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
         <v>162</v>
       </c>
@@ -19575,7 +19575,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="124" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
         <v>194</v>
       </c>
@@ -19607,7 +19607,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="125" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
         <v>251</v>
       </c>
@@ -19630,7 +19630,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="126" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
         <v>338</v>
       </c>
@@ -19650,7 +19650,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="127" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
         <v>227</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="128" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
         <v>178</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="129" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
         <v>313</v>
       </c>
@@ -19776,7 +19776,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="130" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
         <v>342</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="131" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="131" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
         <v>209</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="132" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
         <v>148</v>
       </c>
@@ -19860,7 +19860,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="133" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="133" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
         <v>343</v>
       </c>
@@ -19883,7 +19883,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="134" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
         <v>300</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="135" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="135" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
         <v>278</v>
       </c>
@@ -19941,7 +19941,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="136" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="136" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
         <v>274</v>
       </c>
@@ -19964,7 +19964,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="137" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="137" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
         <v>331</v>
       </c>
@@ -19987,7 +19987,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="138" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="138" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
         <v>169</v>
       </c>
@@ -20031,7 +20031,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="139" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="139" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
         <v>206</v>
       </c>
@@ -20063,7 +20063,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="140" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="140" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
         <v>187</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="141" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="141" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
         <v>317</v>
       </c>
@@ -20121,7 +20121,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="142" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="142" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
         <v>234</v>
       </c>
@@ -20144,7 +20144,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="143" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="143" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
         <v>168</v>
       </c>
@@ -20167,7 +20167,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="144" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="144" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
         <v>323</v>
       </c>
@@ -20202,7 +20202,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="145" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
         <v>160</v>
       </c>
@@ -20237,7 +20237,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="146" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="146" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
         <v>171</v>
       </c>
@@ -20257,7 +20257,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="147" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
         <v>325</v>
       </c>
@@ -20277,7 +20277,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="148" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="148" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
         <v>264</v>
       </c>
@@ -20312,7 +20312,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="149" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
         <v>199</v>
       </c>
@@ -20341,7 +20341,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="150" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
         <v>136</v>
       </c>
@@ -20361,7 +20361,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="151" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
         <v>288</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="152" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="152" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
         <v>172</v>
       </c>
@@ -20401,7 +20401,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="153" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="153" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
         <v>308</v>
       </c>
@@ -20424,7 +20424,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="154" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="154" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
         <v>320</v>
       </c>
@@ -20444,7 +20444,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="155" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="155" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
         <v>253</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="156" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="156" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
         <v>242</v>
       </c>
@@ -20502,7 +20502,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="157" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="157" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
         <v>303</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="158" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="158" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
         <v>299</v>
       </c>
@@ -20560,7 +20560,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="159" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="159" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
         <v>220</v>
       </c>
@@ -20595,7 +20595,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="160" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="160" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
         <v>226</v>
       </c>
@@ -20627,7 +20627,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="161" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="161" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
         <v>221</v>
       </c>
@@ -20665,7 +20665,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="162" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="162" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E162" t="s">
         <v>231</v>
       </c>
@@ -20700,7 +20700,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="163" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
         <v>332</v>
       </c>
@@ -20735,7 +20735,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="164" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="164" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E164" t="s">
         <v>223</v>
       </c>
@@ -20770,7 +20770,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="165" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="165" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
         <v>546</v>
       </c>
@@ -20790,7 +20790,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="166" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="166" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
         <v>781</v>
       </c>
@@ -20822,7 +20822,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="167" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="167" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E167" t="s">
         <v>193</v>
       </c>
@@ -20845,7 +20845,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="168" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="168" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
         <v>292</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="169" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="169" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
         <v>248</v>
       </c>
@@ -20900,7 +20900,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="170" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="170" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E170" t="s">
         <v>309</v>
       </c>
@@ -20923,7 +20923,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="171" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="171" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E171" t="s">
         <v>324</v>
       </c>
@@ -20943,7 +20943,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="172" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="172" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
         <v>212</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="173" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="173" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E173" t="s">
         <v>134</v>
       </c>
@@ -20992,7 +20992,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="174" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="174" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E174" t="s">
         <v>337</v>
       </c>
@@ -21027,7 +21027,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="175" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="175" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E175" t="s">
         <v>149</v>
       </c>
@@ -21047,7 +21047,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="176" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="176" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
         <v>198</v>
       </c>
@@ -21067,7 +21067,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="177" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="177" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
         <v>201</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="178" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="178" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
         <v>146</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="179" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="179" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
         <v>295</v>
       </c>
@@ -21148,7 +21148,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="180" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="180" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
         <v>143</v>
       </c>
@@ -21180,7 +21180,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="181" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
         <v>268</v>
       </c>
@@ -21200,7 +21200,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="182" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
         <v>260</v>
       </c>
@@ -21241,7 +21241,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="183" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
         <v>159</v>
       </c>
@@ -21279,7 +21279,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="184" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
         <v>197</v>
       </c>
@@ -21302,7 +21302,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="185" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
         <v>271</v>
       </c>
@@ -21322,7 +21322,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="186" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E186" t="s">
         <v>283</v>
       </c>
@@ -21357,7 +21357,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="187" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="187" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
         <v>237</v>
       </c>
@@ -21380,7 +21380,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="188" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="188" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
         <v>189</v>
       </c>
@@ -21403,7 +21403,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="189" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="189" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
         <v>272</v>
       </c>
@@ -21474,7 +21474,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="190" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="190" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
         <v>304</v>
       </c>
@@ -21497,7 +21497,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="191" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="191" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
         <v>173</v>
       </c>
@@ -21517,7 +21517,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="192" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="192" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
         <v>244</v>
       </c>
@@ -21540,7 +21540,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="193" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="193" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
         <v>195</v>
       </c>
@@ -21578,7 +21578,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="194" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="194" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
         <v>794</v>
       </c>
@@ -21601,7 +21601,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="195" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="195" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
         <v>196</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="196" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="196" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
         <v>217</v>
       </c>
@@ -21662,7 +21662,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="197" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="197" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E197" t="s">
         <v>276</v>
       </c>
@@ -21682,7 +21682,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="198" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="198" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E198" t="s">
         <v>235</v>
       </c>
@@ -21717,7 +21717,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="199" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="199" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E199" t="s">
         <v>259</v>
       </c>
@@ -21752,7 +21752,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="200" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="200" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
         <v>297</v>
       </c>
@@ -21775,7 +21775,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="201" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="201" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
         <v>256</v>
       </c>
@@ -21798,7 +21798,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="202" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="202" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E202" t="s">
         <v>216</v>
       </c>
@@ -21821,7 +21821,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="203" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="203" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
         <v>158</v>
       </c>
@@ -21868,7 +21868,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="204" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="204" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
         <v>157</v>
       </c>
@@ -21906,7 +21906,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="205" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="205" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
         <v>333</v>
       </c>
@@ -21932,7 +21932,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="206" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="206" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E206" t="s">
         <v>238</v>
       </c>
@@ -21955,7 +21955,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="207" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="207" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E207" t="s">
         <v>334</v>
       </c>
@@ -21993,7 +21993,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="208" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="208" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
         <v>279</v>
       </c>
@@ -22016,7 +22016,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="209" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="209" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
         <v>203</v>
       </c>
@@ -22039,7 +22039,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="210" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="210" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E210" t="s">
         <v>163</v>
       </c>
@@ -22062,7 +22062,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="211" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="211" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
         <v>250</v>
       </c>
@@ -22094,7 +22094,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="212" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="212" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
         <v>167</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="213" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="213" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E213" t="s">
         <v>139</v>
       </c>
@@ -22149,7 +22149,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="214" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="214" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
         <v>229</v>
       </c>
@@ -22169,7 +22169,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="215" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="215" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E215" t="s">
         <v>181</v>
       </c>
@@ -22204,7 +22204,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="216" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="216" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
         <v>316</v>
       </c>
@@ -22224,7 +22224,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="217" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="217" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
         <v>277</v>
       </c>
@@ -22259,7 +22259,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="218" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="218" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E218" t="s">
         <v>202</v>
       </c>
@@ -22294,7 +22294,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="219" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="219" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E219" t="s">
         <v>291</v>
       </c>
@@ -22329,7 +22329,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="220" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="220" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
         <v>188</v>
       </c>
@@ -22352,7 +22352,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="221" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="221" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E221" t="s">
         <v>205</v>
       </c>
@@ -22399,7 +22399,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="222" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="222" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E222" t="s">
         <v>315</v>
       </c>
@@ -22419,7 +22419,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="223" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="223" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E223" t="s">
         <v>175</v>
       </c>
@@ -22439,7 +22439,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="224" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="224" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E224" t="s">
         <v>938</v>
       </c>
@@ -22482,12 +22482,12 @@
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -22498,7 +22498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1.1000000000000001</v>
       </c>
@@ -22509,7 +22509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1.2</v>
       </c>
@@ -22520,7 +22520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1.3</v>
       </c>
@@ -22531,7 +22531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1.4</v>
       </c>
@@ -22542,7 +22542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1.5</v>
       </c>
@@ -22553,7 +22553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -22564,7 +22564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2.1</v>
       </c>
@@ -22575,7 +22575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2.2000000000000002</v>
       </c>
@@ -22586,7 +22586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2.2999999999999998</v>
       </c>
@@ -22597,7 +22597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2.4</v>
       </c>
@@ -22608,7 +22608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2.5</v>
       </c>
@@ -22619,7 +22619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2.6</v>
       </c>
@@ -22630,7 +22630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2.7</v>
       </c>
@@ -22641,7 +22641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2.8</v>
       </c>
@@ -22652,7 +22652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -22660,7 +22660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>3</v>
       </c>
@@ -22671,7 +22671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>3.1</v>
       </c>
@@ -22682,7 +22682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>3.2</v>
       </c>
@@ -22693,7 +22693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>3.3</v>
       </c>
@@ -22704,7 +22704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3.4</v>
       </c>
@@ -22715,7 +22715,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>3.5</v>
       </c>
@@ -22726,7 +22726,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -22734,7 +22734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>4</v>
       </c>
@@ -22745,7 +22745,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>4.0999999999999996</v>
       </c>
@@ -22756,7 +22756,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>4.2</v>
       </c>
@@ -22767,7 +22767,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>43</v>
       </c>
@@ -22778,7 +22778,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>4.4000000000000004</v>
       </c>
@@ -22789,7 +22789,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>4.5</v>
       </c>
@@ -22800,7 +22800,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>4.5999999999999996</v>
       </c>
@@ -22811,7 +22811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>4.7</v>
       </c>
@@ -22822,7 +22822,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>4.8</v>
       </c>
@@ -22833,7 +22833,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>55</v>
       </c>
@@ -22841,7 +22841,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>5</v>
       </c>
@@ -22852,7 +22852,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>5.0999999999999996</v>
       </c>
@@ -22863,7 +22863,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>5.2</v>
       </c>
@@ -22874,7 +22874,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>53</v>
       </c>
@@ -22885,7 +22885,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>5.4</v>
       </c>
@@ -22896,7 +22896,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>5.5</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>5.6</v>
       </c>
@@ -22918,7 +22918,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>63</v>
       </c>
@@ -22926,7 +22926,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>6</v>
       </c>
@@ -22937,7 +22937,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>6.1</v>
       </c>
@@ -22948,7 +22948,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>6.2</v>
       </c>
@@ -22959,7 +22959,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>63</v>
       </c>
@@ -22970,7 +22970,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>6.4</v>
       </c>
@@ -22981,7 +22981,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>6.5</v>
       </c>
@@ -22992,7 +22992,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>70</v>
       </c>
@@ -23000,7 +23000,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>7</v>
       </c>
@@ -23011,7 +23011,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>7.1</v>
       </c>
@@ -23022,7 +23022,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>7.2</v>
       </c>
@@ -23033,7 +23033,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>7.3</v>
       </c>
@@ -23044,7 +23044,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>7.4</v>
       </c>
@@ -23055,7 +23055,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>7.5</v>
       </c>
@@ -23066,7 +23066,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>7.6</v>
       </c>
@@ -23077,7 +23077,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>7.7</v>
       </c>
@@ -23088,7 +23088,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>7.8</v>
       </c>
@@ -23099,7 +23099,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>80</v>
       </c>
@@ -23107,7 +23107,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>8</v>
       </c>
@@ -23118,7 +23118,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>8.1</v>
       </c>
@@ -23129,7 +23129,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>8.1999999999999993</v>
       </c>
@@ -23140,7 +23140,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>84</v>
       </c>
@@ -23148,7 +23148,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>9</v>
       </c>
@@ -23159,7 +23159,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>9.1</v>
       </c>
@@ -23170,7 +23170,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>9.1999999999999993</v>
       </c>
@@ -23181,7 +23181,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>9.3000000000000007</v>
       </c>
@@ -23192,7 +23192,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>9.4</v>
       </c>
@@ -23203,7 +23203,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>34</v>
       </c>
@@ -23211,7 +23211,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>10</v>
       </c>
@@ -23222,7 +23222,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>10.1</v>
       </c>
@@ -23233,7 +23233,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>10.199999999999999</v>
       </c>
@@ -23244,7 +23244,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>34</v>
       </c>
@@ -23252,7 +23252,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>11</v>
       </c>
@@ -23263,7 +23263,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>11.1</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>11.2</v>
       </c>
@@ -23285,7 +23285,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>11.3</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>11.4</v>
       </c>
@@ -23307,7 +23307,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>11.5</v>
       </c>
@@ -23318,7 +23318,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>11.6</v>
       </c>
@@ -23329,7 +23329,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>12</v>
       </c>
@@ -23340,7 +23340,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>12.1</v>
       </c>
@@ -23351,7 +23351,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>12.2</v>
       </c>
@@ -23362,7 +23362,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>12.3</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>12.4</v>
       </c>
@@ -23384,7 +23384,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>12.5</v>
       </c>
@@ -23395,7 +23395,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>12.6</v>
       </c>
@@ -23406,7 +23406,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>13</v>
       </c>
@@ -23417,7 +23417,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>13.1</v>
       </c>
@@ -23428,7 +23428,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>13.2</v>
       </c>
@@ -23439,7 +23439,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>13.3</v>
       </c>
@@ -23450,7 +23450,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>13.4</v>
       </c>
@@ -23461,7 +23461,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>13.5</v>
       </c>
@@ -23472,7 +23472,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>112</v>
       </c>
@@ -23480,7 +23480,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>113</v>
       </c>
@@ -23488,7 +23488,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>114</v>
       </c>
@@ -23496,7 +23496,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>115</v>
       </c>
@@ -23504,7 +23504,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>116</v>
       </c>
@@ -23512,7 +23512,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>117</v>
       </c>
@@ -23520,7 +23520,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>118</v>
       </c>
@@ -23528,7 +23528,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>119</v>
       </c>
